--- a/25th Feb Batch/New Microsoft Excel Worksheet.xlsx
+++ b/25th Feb Batch/New Microsoft Excel Worksheet.xlsx
@@ -8,24 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS WorkFlow\Data Is Good Class Files\Batches\2023-Classes\25th Feb Batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CA9121-7C39-4C30-BDC5-3DF3D9DC7D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F02CB0D-2039-402F-BAF5-A1BDCE89CAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="46">
   <si>
     <t>male</t>
   </si>
@@ -55,6 +65,114 @@
   </si>
   <si>
     <t>gender</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>salary</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>kk</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>yt</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>er</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>using of 0</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>ignored</t>
+  </si>
+  <si>
+    <t>using mean</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>income group</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>designation</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>hj</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>ty</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>exceutive</t>
+  </si>
+  <si>
+    <t>avp</t>
+  </si>
+  <si>
+    <t>not null</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
 </sst>
 </file>
@@ -377,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -544,4 +662,419 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B094B1A4-730F-4CA1-9471-BC18E3EC45F8}">
+  <dimension ref="A1:K53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="15.26953125" customWidth="1"/>
+    <col min="7" max="7" width="14.90625" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" customWidth="1"/>
+    <col min="10" max="10" width="12.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>10860</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>10650</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>10440</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G42" s="1">
+        <v>10</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I42" s="1">
+        <v>9</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K42" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G43" s="1">
+        <v>2</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I43" s="1">
+        <v>3</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K43" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>12</v>
+      </c>
+      <c r="B53" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53">
+        <v>6500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/25th Feb Batch/New Microsoft Excel Worksheet.xlsx
+++ b/25th Feb Batch/New Microsoft Excel Worksheet.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS WorkFlow\Data Is Good Class Files\Batches\2023-Classes\25th Feb Batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F02CB0D-2039-402F-BAF5-A1BDCE89CAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD83DC35-0B84-47F7-985F-D2ED806DD5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="68">
   <si>
     <t>male</t>
   </si>
@@ -173,16 +174,96 @@
   </si>
   <si>
     <t>null</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>tie</t>
+  </si>
+  <si>
+    <t>no result</t>
+  </si>
+  <si>
+    <t>3 unique values we have in result column</t>
+  </si>
+  <si>
+    <t>numerical</t>
+  </si>
+  <si>
+    <t>match 1</t>
+  </si>
+  <si>
+    <t>match 2</t>
+  </si>
+  <si>
+    <t>match 3</t>
+  </si>
+  <si>
+    <t>match 4</t>
+  </si>
+  <si>
+    <t>match 5</t>
+  </si>
+  <si>
+    <t>match 6</t>
+  </si>
+  <si>
+    <t>match 7</t>
+  </si>
+  <si>
+    <t>match 8</t>
+  </si>
+  <si>
+    <t>match 9</t>
+  </si>
+  <si>
+    <t>match 10</t>
+  </si>
+  <si>
+    <t>match 11</t>
+  </si>
+  <si>
+    <t>winner</t>
+  </si>
+  <si>
+    <t>Nan</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>not ok</t>
+  </si>
+  <si>
+    <t>absolutely not ok</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -208,11 +289,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,7 +753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B094B1A4-730F-4CA1-9471-BC18E3EC45F8}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
@@ -1077,4 +1162,315 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8422B36-865E-4193-90FA-E9BBADC522AB}">
+  <dimension ref="A3:G31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.6328125" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" customWidth="1"/>
+    <col min="7" max="7" width="13.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13">
+        <v>-1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14">
+        <v>-1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E30" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>